--- a/biology/Médecine/Éclampsie/Éclampsie.xlsx
+++ b/biology/Médecine/Éclampsie/Éclampsie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89clampsie</t>
+          <t>Éclampsie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éclampsie est une crise convulsive généralisée survenant chez une femme enceinte dans un contexte d'hypertension gravidique. Elle survient habituellement comme la complication majeure de la pré-éclampsie. Il s'agit d'une urgence vitale pour la femme et l'enfant à naître.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89clampsie</t>
+          <t>Éclampsie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étymologie et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot éclampsie vient du grec ancien ἒκλαμψις, eklampsis, « lumière éclatante », d’où le sens d’« accès soudain » ; il fut introduit au XVIIIe siècle par François Boissier de la Croix de Sauvages en référence à l'occurrence subite des convulsions chez les patientes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89clampsie</t>
+          <t>Éclampsie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'incidence de l'éclampsie a été estimée aux États-Unis à 0,04 % au Royaume-Uni à 0,05 % et seulement 0,02 % en Suède.[réf. nécessaire]
-En Afrique, par contre, la fréquence de l'éclampsie est très élevée, parfois supérieure à 1%[1].
+En Afrique, par contre, la fréquence de l'éclampsie est très élevée, parfois supérieure à 1%.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89clampsie</t>
+          <t>Éclampsie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'éclampsie survient exclusivement dans le cadre d'une hypertension gravidique, définie par la survenue d'une hypertension artérielle au cours de la grossesse après vingt semaines d'aménorrhée, ou au cours du post-partum avant six semaines[2]. Dans le deuxième cas, elle survient principalement dans les deux premiers jours[3]. Dans tous les cas, elle est le plus souvent la complication de la pré-éclampsie, définie par l'association d'une hypertension gravidique et d'une protéinurie[2].
-La crise convulsive généralisée se développe en principe en quatre étapes qui peuvent se répéter[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'éclampsie survient exclusivement dans le cadre d'une hypertension gravidique, définie par la survenue d'une hypertension artérielle au cours de la grossesse après vingt semaines d'aménorrhée, ou au cours du post-partum avant six semaines. Dans le deuxième cas, elle survient principalement dans les deux premiers jours. Dans tous les cas, elle est le plus souvent la complication de la pré-éclampsie, définie par l'association d'une hypertension gravidique et d'une protéinurie.
+La crise convulsive généralisée se développe en principe en quatre étapes qui peuvent se répéter :
 phases d'invasion (quelques secondes) : contraction de la face et des membres supérieurs ;
 phase tonique (quelques dizaines de secondes) : contraction généralisée (y compris les muscles respiratoires) avec apnée ;
 phase clonique (quelques minutes) : convulsions généralisées avec possible morsure de langue ;
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89clampsie</t>
+          <t>Éclampsie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'éclampsie doit être différenciée des autres causes de crise convulsive, qui peuvent être par exemple une hémorragie méningée ou une crise  convulsive idiopathique[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'éclampsie doit être différenciée des autres causes de crise convulsive, qui peuvent être par exemple une hémorragie méningée ou une crise  convulsive idiopathique.
 </t>
         </is>
       </c>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89clampsie</t>
+          <t>Éclampsie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Facteurs de risque</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le facteur de risque principal d'éclampsie est la pré-éclampsie.
 </t>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89clampsie</t>
+          <t>Éclampsie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,13 +693,15 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>L'éclampsie non prise en charge peut aboutir au décès[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'éclampsie non prise en charge peut aboutir au décès.
 Parmi les complications, sont possibles :
 des accidents respiratoires avec asphyxie ;
 des hémorragies cérébro-méningées et cérébrale ;
-une psychose puerpérale quelques jours après[6] ;
+une psychose puerpérale quelques jours après ;
 une mort maternelle par complication respiratoire ;
 une mort fœtale in utero du fait des troubles respiratoires ou d'un hématome rétroplacentaire.</t>
         </is>
@@ -689,7 +713,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>%C3%89clampsie</t>
+          <t>Éclampsie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,13 +731,11 @@
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement de l'éclampsie doit être immédiat et comporte deux volets successifs, la stabilisation de la patiente et l'arrêt de la grossesse.
-Stabilisation
-La stabilisation de la patiente comporte, outre les mesures habituelles de prise en charge en soins intensifs, l'arrêt des convulsions et le traitement de l'hypertension. Pour les convulsions, le traitement à privilégier est le sulfate de magnésium par voie intraveineuse, dont la dose doit être adaptée et dont le maintien est préconisé pendant 24 heures après la fin des crises[2]. En effet, ce traitement est d'efficacité supérieure au diazépam ou à la phénytoïne[2]. Pour l'hypertension, un traitement est souhaité selon les mêmes critères que pour la pré-éclampsie, à savoir si la pression artérielle diastolique est supérieure à 110 mmHg[5].
-Arrêt de la grossesse
-L'arrêt de la grossesse est indispensable et doit avoir lieu dans les plus brefs délais, pouvant être par césarienne ou par voie basse, le plus souvent après stabilisation de la patiente[5].
 </t>
         </is>
       </c>
@@ -724,7 +746,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>%C3%89clampsie</t>
+          <t>Éclampsie</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,12 +761,88 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Stabilisation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La stabilisation de la patiente comporte, outre les mesures habituelles de prise en charge en soins intensifs, l'arrêt des convulsions et le traitement de l'hypertension. Pour les convulsions, le traitement à privilégier est le sulfate de magnésium par voie intraveineuse, dont la dose doit être adaptée et dont le maintien est préconisé pendant 24 heures après la fin des crises. En effet, ce traitement est d'efficacité supérieure au diazépam ou à la phénytoïne. Pour l'hypertension, un traitement est souhaité selon les mêmes critères que pour la pré-éclampsie, à savoir si la pression artérielle diastolique est supérieure à 110 mmHg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Éclampsie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89clampsie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Arrêt de la grossesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arrêt de la grossesse est indispensable et doit avoir lieu dans les plus brefs délais, pouvant être par césarienne ou par voie basse, le plus souvent après stabilisation de la patiente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Éclampsie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89clampsie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prévention de l'éclampsie est indiquée au cours de la pré-éclampsie sévère (définie par la présence d'un critère parmi : hypertension sévère, atteinte rénale, œdème aigu pulmonaire, syndrome HELLP, troubles neurologiques, thrombopénie, hématome rétroplacentaire, souffrance fœtale) lorsque surviennent des signes neurologiques associant céphalée rebelle, réflexes ostéotendineux polycycinétiques et troubles visuels[2]. Un traitement préventif par sulfate de magnésium intraveineux est alors recommandé en l'absence de contre-indications (insuffisance rénale ou maladie neuromusculaire)[2].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévention de l'éclampsie est indiquée au cours de la pré-éclampsie sévère (définie par la présence d'un critère parmi : hypertension sévère, atteinte rénale, œdème aigu pulmonaire, syndrome HELLP, troubles neurologiques, thrombopénie, hématome rétroplacentaire, souffrance fœtale) lorsque surviennent des signes neurologiques associant céphalée rebelle, réflexes ostéotendineux polycycinétiques et troubles visuels. Un traitement préventif par sulfate de magnésium intraveineux est alors recommandé en l'absence de contre-indications (insuffisance rénale ou maladie neuromusculaire).
 </t>
         </is>
       </c>
